--- a/nbs/files/lut/dbo_species_cleaned.xlsx
+++ b/nbs/files/lut/dbo_species_cleaned.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/franckalbinet/pro/IAEA/MARIS/marisco/nbs/files/lut/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA083E72-8773-D24A-A94C-78C678FC407F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED8CB5AF-ADB4-3B4C-8325-3B3484B8BEB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14390" uniqueCount="4914">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14397" uniqueCount="4917">
   <si>
     <t>species_id</t>
   </si>
@@ -14762,13 +14762,22 @@
   </si>
   <si>
     <t>Not applicable</t>
+  </si>
+  <si>
+    <t>Chara baltica</t>
+  </si>
+  <si>
+    <t>Q9303824</t>
+  </si>
+  <si>
+    <t>https://www.wikidata.org/wiki/Q9303824</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -14899,6 +14908,14 @@
     <font>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -15201,7 +15218,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -15244,11 +15261,13 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -15282,6 +15301,7 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -15602,17 +15622,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L1611"/>
+  <dimension ref="A1:L1612"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A1595" workbookViewId="0">
+      <selection activeCell="B1612" sqref="B1612"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="32.5" customWidth="1"/>
     <col min="2" max="2" width="25.1640625" customWidth="1"/>
-    <col min="3" max="3" width="19.83203125" customWidth="1"/>
+    <col min="3" max="3" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="58.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
@@ -76757,7 +76779,7 @@
       <c r="F1611" t="s">
         <v>4260</v>
       </c>
-      <c r="G1611" t="s">
+      <c r="G1611" s="1" t="s">
         <v>4261</v>
       </c>
       <c r="H1611" t="s">
@@ -76774,12 +76796,42 @@
       </c>
       <c r="L1611">
         <v>1</v>
+      </c>
+    </row>
+    <row r="1612" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1612">
+        <v>1611</v>
+      </c>
+      <c r="B1612" t="s">
+        <v>4914</v>
+      </c>
+      <c r="C1612" t="s">
+        <v>4914</v>
+      </c>
+      <c r="D1612" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1612" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1612" t="s">
+        <v>4915</v>
+      </c>
+      <c r="G1612" t="s">
+        <v>4916</v>
+      </c>
+      <c r="H1612" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:L1611">
     <sortCondition ref="A3:A1611"/>
   </sortState>
+  <hyperlinks>
+    <hyperlink ref="G1611" r:id="rId1" xr:uid="{052B5849-DECC-6D4E-A301-DA38F0F80B37}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/nbs/files/lut/dbo_species_cleaned.xlsx
+++ b/nbs/files/lut/dbo_species_cleaned.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/franckalbinet/pro/IAEA/MARIS/marisco/nbs/files/lut/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED8CB5AF-ADB4-3B4C-8325-3B3484B8BEB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72D0690C-8175-C146-A7F0-32691CBC38C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15624,8 +15624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L1612"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1595" workbookViewId="0">
-      <selection activeCell="B1612" sqref="B1612"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15682,6 +15682,9 @@
       <c r="B2" t="s">
         <v>4913</v>
       </c>
+      <c r="K2">
+        <v>-1</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">

--- a/nbs/files/lut/dbo_species_cleaned.xlsx
+++ b/nbs/files/lut/dbo_species_cleaned.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/franckalbinet/pro/IAEA/MARIS/marisco/nbs/files/lut/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72D0690C-8175-C146-A7F0-32691CBC38C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61406C46-9774-3E44-8BF0-FDACD7C220BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15624,8 +15624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L1612"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" topLeftCell="D1593" workbookViewId="0">
+      <selection activeCell="C1609" sqref="C1609"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15633,6 +15633,7 @@
     <col min="1" max="1" width="32.5" customWidth="1"/>
     <col min="2" max="2" width="25.1640625" customWidth="1"/>
     <col min="3" max="3" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.1640625" customWidth="1"/>
     <col min="7" max="7" width="58.83203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
   </cols>
@@ -76820,11 +76821,14 @@
       <c r="F1612" t="s">
         <v>4915</v>
       </c>
-      <c r="G1612" t="s">
+      <c r="G1612" s="1" t="s">
         <v>4916</v>
       </c>
       <c r="H1612" t="s">
         <v>16</v>
+      </c>
+      <c r="K1612">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -76833,6 +76837,7 @@
   </sortState>
   <hyperlinks>
     <hyperlink ref="G1611" r:id="rId1" xr:uid="{052B5849-DECC-6D4E-A301-DA38F0F80B37}"/>
+    <hyperlink ref="G1612" r:id="rId2" xr:uid="{4D38A5DF-7B95-974B-93EE-BC57518773C4}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
